--- a/cv_10/data/EMB-cv_10.xlsx
+++ b/cv_10/data/EMB-cv_10.xlsx
@@ -8,42 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB956C-0E8D-3248-9FBE-EF13712A177D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE19CA7-2463-0E4A-96F7-6A0AA4698542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{7D6C54E6-FF45-0C47-ACF7-17533214FF3A}"/>
+    <workbookView xWindow="4720" yWindow="22060" windowWidth="28800" windowHeight="17540" xr2:uid="{7D6C54E6-FF45-0C47-ACF7-17533214FF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">List1!$A$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">List1!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">List1!$B$13</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">List1!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">List1!$A$29:$A$43</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">List1!$B$29:$B$43</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">List1!$A$13</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">List1!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">List1!$B$13</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">List1!$B$14:$B$23</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">List1!$A$29:$A$44</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">List1!$B$28</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">List1!$B$29:$B$44</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">List1!$C$29:$C$44</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">List1!$A$29:$A$44</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">List1!$B$28</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">List1!$B$29:$B$44</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">List1!$C$29:$C$44</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">List1!$A$29:$A$44</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">List1!$B$28</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">List1!$B$29:$B$44</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">List1!$C$29:$C$44</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">List1!$B$29:$B$44</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">List1!$A$29:$A$44</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">List1!$B$28</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">List1!$B$29:$B$44</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">List1!$C$29:$C$44</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">List1!$A$29:$A$44</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">List1!$B$28</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">List1!$B$29:$B$44</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">List1!$C$29:$C$44</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">List1!$C$29:$C$44</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">List1!$A$29:$A$44</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">List1!$B$28</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">List1!$B$29:$B$44</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">List1!$C$29:$C$44</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">List1!$A$29:$A$44</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">List1!$B$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,8 +63,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>f [Hz]</t>
   </si>
@@ -83,6 +107,9 @@
   </si>
   <si>
     <t>čas [s]</t>
+  </si>
+  <si>
+    <t>hjk</t>
   </si>
 </sst>
 </file>
@@ -157,7 +184,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -190,53 +217,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>List1!$A$29:$A$43</c:f>
+              <c:f>List1!$A$29:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -244,53 +274,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$B$29:$B$43</c:f>
+              <c:f>List1!$B$29:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>2.266</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.704</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.92500000000000004</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-0.76400000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-1.423</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-1.82</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-1.911</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-1.621</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-1.0629999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-0.29199999999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.57199999999999995</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.4039999999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2.0699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2.4769999999999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2.5710000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -311,10 +344,106 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="3"/>
-        <c:overlap val="100"/>
         <c:axId val="1070127663"/>
         <c:axId val="1070399567"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$29:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.732419425616565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4135704755853407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87951823469451873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21156731542410759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4885928097571331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1143691087577008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5704928127310345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7875232225188671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7324194256165653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.413570475585342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.87951823469451962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.21156731542410939</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48859280975713287</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1143691087576999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5704928127310342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7875232225188671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62F7-B445-B114-419EBAFB1A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1070127663"/>
+        <c:axId val="1070399567"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1070127663"/>
         <c:scaling>
@@ -1965,16 +2094,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>700616</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>315382</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494485</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>105996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2486,13 +2615,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EDF667-0D09-D44B-B34E-367141F3D464}">
-  <dimension ref="A9:D43"/>
+  <dimension ref="A9:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2542,7 +2674,7 @@
         <v>2.0590000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2550,15 +2682,18 @@
         <v>2.0430000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
         <v>2.028</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2566,7 +2701,7 @@
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2574,7 +2709,7 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2582,7 +2717,7 @@
         <v>1.9830000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2590,7 +2725,7 @@
         <v>1.9690000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10</v>
       </c>
@@ -2598,12 +2733,12 @@
         <v>1.954</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2611,52 +2746,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>2.266</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C36" si="0">1.8*SIN(2*PI()*((A29+4.7)/16))</f>
+        <v>1.732419425616565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>1.704</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.4135704755853407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.87951823469451873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>-0.76400000000000001</v>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.21156731542410759</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>-1.423</v>
+        <v>-0.76400000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-0.4885928097571331</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>-1.82</v>
+        <v>-1.423</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-1.1143691087577008</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -2664,78 +2823,144 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>-1.911</v>
+        <v>-1.82</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-1.5704928127310345</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>-1.621</v>
+        <v>-1.911</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-1.7875232225188671</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>-1.0629999999999999</v>
+        <v>-1.621</v>
+      </c>
+      <c r="C37">
+        <f>1.8*SIN(2*PI()*((A37+4.7)/16))</f>
+        <v>-1.7324194256165653</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>-0.29199999999999998</v>
+        <v>-1.0629999999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C44" si="1">1.8*SIN(2*PI()*((A38+4.7)/16))</f>
+        <v>-1.413570475585342</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>0.57199999999999995</v>
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>-0.87951823469451962</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>1.4039999999999999</v>
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>-0.21156731542410939</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>2.0699999999999998</v>
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.48859280975713287</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>2.4769999999999999</v>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>1.1143691087576999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>2.4769999999999999</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>1.5704928127310342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>15</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>2.5710000000000002</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>1.7875232225188671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" cm="1">
+        <f t="array" ref="B45">SUM(ABS(B29:B44))/16</f>
+        <v>1.4338124999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1.5839000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f>(B47-B45)/B47</f>
+        <v>9.4758191805038292E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>